--- a/Template/surveyprint_template.xlsx
+++ b/Template/surveyprint_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\00_Workspace\Packages\surveyprint\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,153 +113,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <left style="thin">
@@ -575,16 +454,16 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -640,7 +519,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -663,16 +542,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7"/>
       <c r="J14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Template/surveyprint_template.xlsx
+++ b/Template/surveyprint_template.xlsx
@@ -119,12 +119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -134,29 +128,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <left style="thin">
@@ -454,85 +436,85 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,16 +524,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="J14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -561,7 +543,7 @@
     <mergeCell ref="A6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:E1000">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Template/surveyprint_template.xlsx
+++ b/Template/surveyprint_template.xlsx
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -132,6 +132,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,80 +474,59 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="1" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J12" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="J14" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="A6:E7"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:E1000">
+  <conditionalFormatting sqref="A6:E996">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A10&lt;&gt;""</formula>
+      <formula>$A6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/surveyprint_template.xlsx
+++ b/Template/surveyprint_template.xlsx
@@ -119,23 +119,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,64 +439,64 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Template/surveyprint_template.xlsx
+++ b/Template/surveyprint_template.xlsx
@@ -78,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -113,29 +119,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -444,80 +458,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J8" s="1" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="J10" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="J10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
